--- a/server/1.xlsx
+++ b/server/1.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C164"/>
+  <dimension ref="A1:C474"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -426,10 +426,10 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>图像通道</v>
+        <v>指数衰减的反弹缓动</v>
       </c>
       <c r="B5" t="str">
-        <v>alpha</v>
+        <v>bounce</v>
       </c>
       <c r="C5" t="str">
         <v/>
@@ -437,10 +437,10 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>动画</v>
+        <v>在…之前</v>
       </c>
       <c r="B6" t="str">
-        <v>animate</v>
+        <v>before</v>
       </c>
       <c r="C6" t="str">
         <v/>
@@ -448,10 +448,10 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>动画片</v>
+        <v>当输入框失焦的时候触发</v>
       </c>
       <c r="B7" t="str">
-        <v>animation</v>
+        <v xml:space="preserve">blur </v>
       </c>
       <c r="C7" t="str">
         <v/>
@@ -459,10 +459,10 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>提醒</v>
+        <v>BOM</v>
       </c>
       <c r="B8" t="str">
-        <v>alert</v>
+        <v xml:space="preserve">BOM </v>
       </c>
       <c r="C8" t="str">
         <v/>
@@ -470,10 +470,10 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>加</v>
+        <v>浏览器对象模型</v>
       </c>
       <c r="B9" t="str">
-        <v>add</v>
+        <v>Browser Object Model</v>
       </c>
       <c r="C9" t="str">
         <v/>
@@ -481,10 +481,10 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>添加</v>
+        <v>失焦</v>
       </c>
       <c r="B10" t="str">
-        <v>append</v>
+        <v xml:space="preserve">blur </v>
       </c>
       <c r="C10" t="str">
         <v/>
@@ -492,10 +492,10 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>之后</v>
+        <v>整个主程序</v>
       </c>
       <c r="B11" t="str">
-        <v>after</v>
+        <v>app</v>
       </c>
       <c r="C11" t="str">
         <v/>
@@ -503,10 +503,10 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>超过范围的三次方缓动</v>
+        <v>搜索</v>
       </c>
       <c r="B12" t="str">
-        <v xml:space="preserve">back </v>
+        <v>search</v>
       </c>
       <c r="C12" t="str">
         <v/>
@@ -514,10 +514,10 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>指数衰减的反弹缓动</v>
+        <v>结果</v>
       </c>
       <c r="B13" t="str">
-        <v>bounce</v>
+        <v>results</v>
       </c>
       <c r="C13" t="str">
         <v/>
@@ -525,10 +525,10 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>在…之前</v>
+        <v>活动</v>
       </c>
       <c r="B14" t="str">
-        <v>before</v>
+        <v>activity</v>
       </c>
       <c r="C14" t="str">
         <v/>
@@ -536,10 +536,10 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>当输入框失焦的时候触发</v>
+        <v>信息</v>
       </c>
       <c r="B15" t="str">
-        <v xml:space="preserve">blur </v>
+        <v>msg / messages</v>
       </c>
       <c r="C15" t="str">
         <v/>
@@ -547,10 +547,10 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>BOM</v>
+        <v>首页</v>
       </c>
       <c r="B16" t="str">
-        <v xml:space="preserve">BOM </v>
+        <v>home</v>
       </c>
       <c r="C16" t="str">
         <v/>
@@ -558,10 +558,10 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>浏览器对象模型</v>
+        <v>应用详情</v>
       </c>
       <c r="B17" t="str">
-        <v>Browser Object Model</v>
+        <v>app detail</v>
       </c>
       <c r="C17" t="str">
         <v/>
@@ -569,10 +569,10 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>失焦</v>
+        <v>个人中心</v>
       </c>
       <c r="B18" t="str">
-        <v xml:space="preserve">blur </v>
+        <v>personal center</v>
       </c>
       <c r="C18" t="str">
         <v/>
@@ -580,10 +580,10 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>整个主程序</v>
+        <v>设置</v>
       </c>
       <c r="B19" t="str">
-        <v>app</v>
+        <v>settings</v>
       </c>
       <c r="C19" t="str">
         <v/>
@@ -591,10 +591,10 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>搜索</v>
+        <v>软件</v>
       </c>
       <c r="B20" t="str">
-        <v>search</v>
+        <v>software</v>
       </c>
       <c r="C20" t="str">
         <v/>
@@ -602,10 +602,10 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>结果</v>
+        <v>日历</v>
       </c>
       <c r="B21" t="str">
-        <v>results</v>
+        <v>calendar</v>
       </c>
       <c r="C21" t="str">
         <v/>
@@ -613,10 +613,10 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>活动</v>
+        <v>联系人</v>
       </c>
       <c r="B22" t="str">
-        <v>activity</v>
+        <v>contacts</v>
       </c>
       <c r="C22" t="str">
         <v/>
@@ -624,10 +624,10 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>信息</v>
+        <v>新闻</v>
       </c>
       <c r="B23" t="str">
-        <v>msg / messages</v>
+        <v>news</v>
       </c>
       <c r="C23" t="str">
         <v/>
@@ -635,10 +635,10 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>首页</v>
+        <v>游戏</v>
       </c>
       <c r="B24" t="str">
-        <v>home</v>
+        <v>game</v>
       </c>
       <c r="C24" t="str">
         <v/>
@@ -646,10 +646,10 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>应用详情</v>
+        <v>相机</v>
       </c>
       <c r="B25" t="str">
-        <v>app detail</v>
+        <v>camera</v>
       </c>
       <c r="C25" t="str">
         <v/>
@@ -657,10 +657,10 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>个人中心</v>
+        <v>控制中心</v>
       </c>
       <c r="B26" t="str">
-        <v>personal center</v>
+        <v>control center</v>
       </c>
       <c r="C26" t="str">
         <v/>
@@ -668,10 +668,10 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>设置</v>
+        <v>笔记</v>
       </c>
       <c r="B27" t="str">
-        <v>settings</v>
+        <v>notes</v>
       </c>
       <c r="C27" t="str">
         <v/>
@@ -679,10 +679,10 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>软件</v>
+        <v>管理</v>
       </c>
       <c r="B28" t="str">
-        <v>software</v>
+        <v>management</v>
       </c>
       <c r="C28" t="str">
         <v/>
@@ -690,10 +690,10 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>日历</v>
+        <v>相片</v>
       </c>
       <c r="B29" t="str">
-        <v>calendar</v>
+        <v>photo</v>
       </c>
       <c r="C29" t="str">
         <v/>
@@ -701,10 +701,10 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>联系人</v>
+        <v>健康</v>
       </c>
       <c r="B30" t="str">
-        <v>contacts</v>
+        <v>health</v>
       </c>
       <c r="C30" t="str">
         <v/>
@@ -712,10 +712,10 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>新闻</v>
+        <v>天气</v>
       </c>
       <c r="B31" t="str">
-        <v>news</v>
+        <v>weather</v>
       </c>
       <c r="C31" t="str">
         <v/>
@@ -723,10 +723,10 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>游戏</v>
+        <v>发现</v>
       </c>
       <c r="B32" t="str">
-        <v>game</v>
+        <v>find</v>
       </c>
       <c r="C32" t="str">
         <v/>
@@ -734,10 +734,10 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>相机</v>
+        <v>视频</v>
       </c>
       <c r="B33" t="str">
-        <v>camera</v>
+        <v>video</v>
       </c>
       <c r="C33" t="str">
         <v/>
@@ -745,10 +745,10 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>控制中心</v>
+        <v>邮件</v>
       </c>
       <c r="B34" t="str">
-        <v>control center</v>
+        <v>mail</v>
       </c>
       <c r="C34" t="str">
         <v/>
@@ -756,10 +756,10 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>笔记</v>
+        <v>手表</v>
       </c>
       <c r="B35" t="str">
-        <v>notes</v>
+        <v>watch</v>
       </c>
       <c r="C35" t="str">
         <v/>
@@ -767,10 +767,10 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>管理</v>
+        <v>探索</v>
       </c>
       <c r="B36" t="str">
-        <v>management</v>
+        <v>explore</v>
       </c>
       <c r="C36" t="str">
         <v/>
@@ -778,10 +778,10 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>相片</v>
+        <v>音乐</v>
       </c>
       <c r="B37" t="str">
-        <v>photo</v>
+        <v>music</v>
       </c>
       <c r="C37" t="str">
         <v/>
@@ -789,10 +789,10 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>健康</v>
+        <v>地图</v>
       </c>
       <c r="B38" t="str">
-        <v>health</v>
+        <v>maps</v>
       </c>
       <c r="C38" t="str">
         <v/>
@@ -800,10 +800,10 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>天气</v>
+        <v>锁屏</v>
       </c>
       <c r="B39" t="str">
-        <v>weather</v>
+        <v>lock screen</v>
       </c>
       <c r="C39" t="str">
         <v/>
@@ -811,10 +811,10 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>发现</v>
+        <v>启动图</v>
       </c>
       <c r="B40" t="str">
-        <v>find</v>
+        <v>default</v>
       </c>
       <c r="C40" t="str">
         <v/>
@@ -822,10 +822,10 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>视频</v>
+        <v>关于</v>
       </c>
       <c r="B41" t="str">
-        <v>video</v>
+        <v>about</v>
       </c>
       <c r="C41" t="str">
         <v/>
@@ -833,10 +833,10 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>邮件</v>
+        <v>账户</v>
       </c>
       <c r="B42" t="str">
-        <v>mail</v>
+        <v>account</v>
       </c>
       <c r="C42" t="str">
         <v/>
@@ -844,10 +844,10 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>手表</v>
+        <v>箭头图标</v>
       </c>
       <c r="B43" t="str">
-        <v>watch</v>
+        <v>arrow</v>
       </c>
       <c r="C43" t="str">
         <v/>
@@ -855,10 +855,10 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>探索</v>
+        <v>文章</v>
       </c>
       <c r="B44" t="str">
-        <v>explore</v>
+        <v>article</v>
       </c>
       <c r="C44" t="str">
         <v/>
@@ -866,10 +866,10 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>音乐</v>
+        <v>边栏</v>
       </c>
       <c r="B45" t="str">
-        <v>music</v>
+        <v>aside</v>
       </c>
       <c r="C45" t="str">
         <v/>
@@ -877,10 +877,10 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>地图</v>
+        <v>头像</v>
       </c>
       <c r="B46" t="str">
-        <v>maps</v>
+        <v>avatar</v>
       </c>
       <c r="C46" t="str">
         <v/>
@@ -888,10 +888,10 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>锁屏</v>
+        <v>品牌化</v>
       </c>
       <c r="B47" t="str">
-        <v>lock screen</v>
+        <v>baranding</v>
       </c>
       <c r="C47" t="str">
         <v/>
@@ -899,10 +899,10 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>启动图</v>
+        <v>面包屑</v>
       </c>
       <c r="B48" t="str">
-        <v>default</v>
+        <v>crumb</v>
       </c>
       <c r="C48" t="str">
         <v/>
@@ -910,10 +910,10 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>关于</v>
+        <v>分类</v>
       </c>
       <c r="B49" t="str">
-        <v>about</v>
+        <v>categoty</v>
       </c>
       <c r="C49" t="str">
         <v/>
@@ -921,10 +921,10 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>账户</v>
+        <v>列</v>
       </c>
       <c r="B50" t="str">
-        <v>account</v>
+        <v>clo，column</v>
       </c>
       <c r="C50" t="str">
         <v/>
@@ -932,10 +932,10 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>箭头图标</v>
+        <v>评论</v>
       </c>
       <c r="B51" t="str">
-        <v>arrow</v>
+        <v>comment</v>
       </c>
       <c r="C51" t="str">
         <v/>
@@ -943,10 +943,10 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>文章</v>
+        <v>社区</v>
       </c>
       <c r="B52" t="str">
-        <v>article</v>
+        <v>community</v>
       </c>
       <c r="C52" t="str">
         <v/>
@@ -954,10 +954,10 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>边栏</v>
+        <v>版权</v>
       </c>
       <c r="B53" t="str">
-        <v>aside</v>
+        <v>copyright</v>
       </c>
       <c r="C53" t="str">
         <v/>
@@ -965,10 +965,10 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>头像</v>
+        <v>描述</v>
       </c>
       <c r="B54" t="str">
-        <v>avatar</v>
+        <v>description</v>
       </c>
       <c r="C54" t="str">
         <v/>
@@ -976,10 +976,10 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>品牌化</v>
+        <v>细节</v>
       </c>
       <c r="B55" t="str">
-        <v>baranding</v>
+        <v>details</v>
       </c>
       <c r="C55" t="str">
         <v/>
@@ -987,10 +987,10 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>面包屑</v>
+        <v>偶数，常用于多行列表或表格中</v>
       </c>
       <c r="B56" t="str">
-        <v>crumb</v>
+        <v>even</v>
       </c>
       <c r="C56" t="str">
         <v/>
@@ -998,10 +998,10 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>分类</v>
+        <v>奇数，常用于多行列表或表格中</v>
       </c>
       <c r="B57" t="str">
-        <v>categoty</v>
+        <v>odd</v>
       </c>
       <c r="C57" t="str">
         <v/>
@@ -1009,10 +1009,10 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>列</v>
+        <v>专题</v>
       </c>
       <c r="B58" t="str">
-        <v>clo，column</v>
+        <v>feature</v>
       </c>
       <c r="C58" t="str">
         <v/>
@@ -1020,10 +1020,10 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>评论</v>
+        <v>论坛</v>
       </c>
       <c r="B59" t="str">
-        <v>comment</v>
+        <v>forum</v>
       </c>
       <c r="C59" t="str">
         <v/>
@@ -1031,10 +1031,10 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>社区</v>
+        <v>帮助</v>
       </c>
       <c r="B60" t="str">
-        <v>community</v>
+        <v>help</v>
       </c>
       <c r="C60" t="str">
         <v/>
@@ -1042,10 +1042,10 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>版权</v>
+        <v>编辑菜单</v>
       </c>
       <c r="B61" t="str">
-        <v>copyright</v>
+        <v>edit menu</v>
       </c>
       <c r="C61" t="str">
         <v/>
@@ -1053,10 +1053,10 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>描述</v>
+        <v>状态栏</v>
       </c>
       <c r="B62" t="str">
-        <v>description</v>
+        <v>status bar</v>
       </c>
       <c r="C62" t="str">
         <v/>
@@ -1064,10 +1064,10 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>细节</v>
+        <v>搜索栏</v>
       </c>
       <c r="B63" t="str">
-        <v>details</v>
+        <v>search bar</v>
       </c>
       <c r="C63" t="str">
         <v/>
@@ -1075,10 +1075,10 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>偶数，常用于多行列表或表格中</v>
+        <v>标签栏</v>
       </c>
       <c r="B64" t="str">
-        <v>even</v>
+        <v>tab bar</v>
       </c>
       <c r="C64" t="str">
         <v/>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>奇数，常用于多行列表或表格中</v>
+        <v>工具栏</v>
       </c>
       <c r="B65" t="str">
-        <v>odd</v>
+        <v>tool bar</v>
       </c>
       <c r="C65" t="str">
         <v/>
@@ -1097,10 +1097,10 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>专题</v>
+        <v>导航栏</v>
       </c>
       <c r="B66" t="str">
-        <v>feature</v>
+        <v>navbar / navigation bar</v>
       </c>
       <c r="C66" t="str">
         <v/>
@@ -1108,10 +1108,10 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>论坛</v>
+        <v>提醒视图</v>
       </c>
       <c r="B67" t="str">
-        <v>forum</v>
+        <v>alert view</v>
       </c>
       <c r="C67" t="str">
         <v/>
@@ -1119,10 +1119,10 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>帮助</v>
+        <v>弹出视图</v>
       </c>
       <c r="B68" t="str">
-        <v>help</v>
+        <v>pop / popovers</v>
       </c>
       <c r="C68" t="str">
         <v/>
@@ -1130,10 +1130,10 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>编辑菜单</v>
+        <v>表格视图</v>
       </c>
       <c r="B69" t="str">
-        <v>edit menu</v>
+        <v>table view</v>
       </c>
       <c r="C69" t="str">
         <v/>
@@ -1141,10 +1141,10 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>状态栏</v>
+        <v>活动视图</v>
       </c>
       <c r="B70" t="str">
-        <v>status bar</v>
+        <v>activity view</v>
       </c>
       <c r="C70" t="str">
         <v/>
@@ -1152,10 +1152,10 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>搜索栏</v>
+        <v>开关</v>
       </c>
       <c r="B71" t="str">
-        <v>search bar</v>
+        <v>switch</v>
       </c>
       <c r="C71" t="str">
         <v/>
@@ -1163,10 +1163,10 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>标签栏</v>
+        <v>分段控制</v>
       </c>
       <c r="B72" t="str">
-        <v>tab bar</v>
+        <v>segmented control</v>
       </c>
       <c r="C72" t="str">
         <v/>
@@ -1174,10 +1174,10 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>工具栏</v>
+        <v>选择器</v>
       </c>
       <c r="B73" t="str">
-        <v>tool bar</v>
+        <v>pickers</v>
       </c>
       <c r="C73" t="str">
         <v/>
@@ -1185,10 +1185,10 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>导航栏</v>
+        <v>弹窗</v>
       </c>
       <c r="B74" t="str">
-        <v>navbar / navigation bar</v>
+        <v>popup</v>
       </c>
       <c r="C74" t="str">
         <v/>
@@ -1196,10 +1196,10 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>提醒视图</v>
+        <v>滑竿</v>
       </c>
       <c r="B75" t="str">
-        <v>alert view</v>
+        <v>sliders</v>
       </c>
       <c r="C75" t="str">
         <v/>
@@ -1207,10 +1207,10 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>弹出视图</v>
+        <v>扫描</v>
       </c>
       <c r="B76" t="str">
-        <v>pop / popovers</v>
+        <v>scanning</v>
       </c>
       <c r="C76" t="str">
         <v/>
@@ -1218,10 +1218,10 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>表格视图</v>
+        <v>音频</v>
       </c>
       <c r="B77" t="str">
-        <v>table view</v>
+        <v>audio</v>
       </c>
       <c r="C77" t="str">
         <v/>
@@ -1229,10 +1229,10 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>活动视图</v>
+        <v>视频</v>
       </c>
       <c r="B78" t="str">
-        <v>activity view</v>
+        <v>video</v>
       </c>
       <c r="C78" t="str">
         <v/>
@@ -1240,10 +1240,10 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>开关</v>
+        <v>图表</v>
       </c>
       <c r="B79" t="str">
-        <v>switch</v>
+        <v>chart</v>
       </c>
       <c r="C79" t="str">
         <v/>
@@ -1251,10 +1251,10 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>分段控制</v>
+        <v>清除浮动</v>
       </c>
       <c r="B80" t="str">
-        <v>segmented control</v>
+        <v>clearfix</v>
       </c>
       <c r="C80" t="str">
         <v/>
@@ -1262,10 +1262,10 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>选择器</v>
+        <v>取消</v>
       </c>
       <c r="B81" t="str">
-        <v>pickers</v>
+        <v>cancel</v>
       </c>
       <c r="C81" t="str">
         <v/>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>弹窗</v>
+        <v>安装</v>
       </c>
       <c r="B82" t="str">
-        <v>popup</v>
+        <v>install</v>
       </c>
       <c r="C82" t="str">
         <v/>
@@ -1284,10 +1284,10 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>滑竿</v>
+        <v>卸载</v>
       </c>
       <c r="B83" t="str">
-        <v>sliders</v>
+        <v>uninstall</v>
       </c>
       <c r="C83" t="str">
         <v/>
@@ -1295,10 +1295,10 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>扫描</v>
+        <v>添加</v>
       </c>
       <c r="B84" t="str">
-        <v>scanning</v>
+        <v>add</v>
       </c>
       <c r="C84" t="str">
         <v/>
@@ -1306,10 +1306,10 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>音频</v>
+        <v>删除</v>
       </c>
       <c r="B85" t="str">
-        <v>audio</v>
+        <v>delete</v>
       </c>
       <c r="C85" t="str">
         <v/>
@@ -1317,10 +1317,10 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>视频</v>
+        <v>更新</v>
       </c>
       <c r="B86" t="str">
-        <v>video</v>
+        <v>update</v>
       </c>
       <c r="C86" t="str">
         <v/>
@@ -1328,10 +1328,10 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>图表</v>
+        <v>最大化</v>
       </c>
       <c r="B87" t="str">
-        <v>chart</v>
+        <v>max</v>
       </c>
       <c r="C87" t="str">
         <v/>
@@ -1339,10 +1339,10 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>清除浮动</v>
+        <v>最小化</v>
       </c>
       <c r="B88" t="str">
-        <v>clearfix</v>
+        <v>min</v>
       </c>
       <c r="C88" t="str">
         <v/>
@@ -1350,10 +1350,10 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>取消</v>
+        <v>导出</v>
       </c>
       <c r="B89" t="str">
-        <v>cancel</v>
+        <v>export</v>
       </c>
       <c r="C89" t="str">
         <v/>
@@ -1361,10 +1361,10 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>安装</v>
+        <v>导入</v>
       </c>
       <c r="B90" t="str">
-        <v>install</v>
+        <v>import</v>
       </c>
       <c r="C90" t="str">
         <v/>
@@ -1372,10 +1372,10 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>卸载</v>
+        <v>菜单</v>
       </c>
       <c r="B91" t="str">
-        <v>uninstall</v>
+        <v>menu</v>
       </c>
       <c r="C91" t="str">
         <v/>
@@ -1383,10 +1383,10 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>添加</v>
+        <v>选择</v>
       </c>
       <c r="B92" t="str">
-        <v>add</v>
+        <v>select</v>
       </c>
       <c r="C92" t="str">
         <v/>
@@ -1394,10 +1394,10 @@
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>删除</v>
+        <v>前进</v>
       </c>
       <c r="B93" t="str">
-        <v>delete</v>
+        <v>forward</v>
       </c>
       <c r="C93" t="str">
         <v/>
@@ -1405,10 +1405,10 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>更新</v>
+        <v>后退</v>
       </c>
       <c r="B94" t="str">
-        <v>update</v>
+        <v>back</v>
       </c>
       <c r="C94" t="str">
         <v/>
@@ -1416,10 +1416,10 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>最大化</v>
+        <v>搜索</v>
       </c>
       <c r="B95" t="str">
-        <v>max</v>
+        <v>search</v>
       </c>
       <c r="C95" t="str">
         <v/>
@@ -1427,10 +1427,10 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>最小化</v>
+        <v>查看</v>
       </c>
       <c r="B96" t="str">
-        <v>min</v>
+        <v>view</v>
       </c>
       <c r="C96" t="str">
         <v/>
@@ -1438,10 +1438,10 @@
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>导出</v>
+        <v>更多</v>
       </c>
       <c r="B97" t="str">
-        <v>export</v>
+        <v>more</v>
       </c>
       <c r="C97" t="str">
         <v/>
@@ -1449,10 +1449,10 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>导入</v>
+        <v>下载</v>
       </c>
       <c r="B98" t="str">
-        <v>import</v>
+        <v>download</v>
       </c>
       <c r="C98" t="str">
         <v/>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>菜单</v>
+        <v>加载</v>
       </c>
       <c r="B99" t="str">
-        <v>menu</v>
+        <v>loading</v>
       </c>
       <c r="C99" t="str">
         <v/>
@@ -1471,10 +1471,10 @@
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>选择</v>
+        <v>等待</v>
       </c>
       <c r="B100" t="str">
-        <v>select</v>
+        <v>waiting</v>
       </c>
       <c r="C100" t="str">
         <v/>
@@ -1482,10 +1482,10 @@
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>前进</v>
+        <v>刷新</v>
       </c>
       <c r="B101" t="str">
-        <v>forward</v>
+        <v>refresh</v>
       </c>
       <c r="C101" t="str">
         <v/>
@@ -1493,10 +1493,10 @@
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>后退</v>
+        <v>暂停</v>
       </c>
       <c r="B102" t="str">
-        <v>back</v>
+        <v>pause</v>
       </c>
       <c r="C102" t="str">
         <v/>
@@ -1504,10 +1504,10 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>搜索</v>
+        <v>继续</v>
       </c>
       <c r="B103" t="str">
-        <v>search</v>
+        <v>continue</v>
       </c>
       <c r="C103" t="str">
         <v/>
@@ -1515,10 +1515,10 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>查看</v>
+        <v>重新开始</v>
       </c>
       <c r="B104" t="str">
-        <v>view</v>
+        <v>restart</v>
       </c>
       <c r="C104" t="str">
         <v/>
@@ -1526,10 +1526,10 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>更多</v>
+        <v>发送</v>
       </c>
       <c r="B105" t="str">
-        <v>more</v>
+        <v>send</v>
       </c>
       <c r="C105" t="str">
         <v/>
@@ -1537,10 +1537,10 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>下载</v>
+        <v>关闭</v>
       </c>
       <c r="B106" t="str">
-        <v>download</v>
+        <v>close</v>
       </c>
       <c r="C106" t="str">
         <v/>
@@ -1548,10 +1548,10 @@
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>加载</v>
+        <v>标题，说明</v>
       </c>
       <c r="B107" t="str">
-        <v>loading</v>
+        <v>caption</v>
       </c>
       <c r="C107" t="str">
         <v/>
@@ -1559,10 +1559,10 @@
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>等待</v>
+        <v>容器</v>
       </c>
       <c r="B108" t="str">
-        <v>waiting</v>
+        <v>container</v>
       </c>
       <c r="C108" t="str">
         <v/>
@@ -1570,10 +1570,10 @@
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>刷新</v>
+        <v>图标</v>
       </c>
       <c r="B109" t="str">
-        <v>refresh</v>
+        <v>icon</v>
       </c>
       <c r="C109" t="str">
         <v/>
@@ -1581,10 +1581,10 @@
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>暂停</v>
+        <v>分页</v>
       </c>
       <c r="B110" t="str">
-        <v>pause</v>
+        <v>pagination</v>
       </c>
       <c r="C110" t="str">
         <v/>
@@ -1592,10 +1592,10 @@
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>继续</v>
+        <v>图片</v>
       </c>
       <c r="B111" t="str">
-        <v>continue</v>
+        <v>img / image</v>
       </c>
       <c r="C111" t="str">
         <v/>
@@ -1603,10 +1603,10 @@
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>重新开始</v>
+        <v>滚动条</v>
       </c>
       <c r="B112" t="str">
-        <v>restart</v>
+        <v>scroll</v>
       </c>
       <c r="C112" t="str">
         <v/>
@@ -1614,10 +1614,10 @@
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>发送</v>
+        <v>进度条</v>
       </c>
       <c r="B113" t="str">
-        <v>send</v>
+        <v>progress</v>
       </c>
       <c r="C113" t="str">
         <v/>
@@ -1625,10 +1625,10 @@
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>关闭</v>
+        <v>线条</v>
       </c>
       <c r="B114" t="str">
-        <v>close</v>
+        <v>line</v>
       </c>
       <c r="C114" t="str">
         <v/>
@@ -1636,10 +1636,10 @@
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>标题，说明</v>
+        <v>图标</v>
       </c>
       <c r="B115" t="str">
-        <v>caption</v>
+        <v>icon</v>
       </c>
       <c r="C115" t="str">
         <v/>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>容器</v>
+        <v>标签</v>
       </c>
       <c r="B116" t="str">
-        <v>container</v>
+        <v>tab</v>
       </c>
       <c r="C116" t="str">
         <v/>
@@ -1658,10 +1658,10 @@
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>图标</v>
+        <v>列表</v>
       </c>
       <c r="B117" t="str">
-        <v>icon</v>
+        <v>list</v>
       </c>
       <c r="C117" t="str">
         <v/>
@@ -1669,10 +1669,10 @@
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>分页</v>
+        <v>静态文本框</v>
       </c>
       <c r="B118" t="str">
-        <v>pagination</v>
+        <v>label</v>
       </c>
       <c r="C118" t="str">
         <v/>
@@ -1680,10 +1680,10 @@
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>图片</v>
+        <v>单选框</v>
       </c>
       <c r="B119" t="str">
-        <v>img / image</v>
+        <v>radio</v>
       </c>
       <c r="C119" t="str">
         <v/>
@@ -1691,10 +1691,10 @@
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>滚动条</v>
+        <v>勾选框</v>
       </c>
       <c r="B120" t="str">
-        <v>scroll</v>
+        <v>checkbox</v>
       </c>
       <c r="C120" t="str">
         <v/>
@@ -1702,10 +1702,10 @@
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>进度条</v>
+        <v>按钮</v>
       </c>
       <c r="B121" t="str">
-        <v>progress</v>
+        <v>btn / button</v>
       </c>
       <c r="C121" t="str">
         <v/>
@@ -1713,10 +1713,10 @@
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>线条</v>
+        <v>背景</v>
       </c>
       <c r="B122" t="str">
-        <v>line</v>
+        <v>bg / background</v>
       </c>
       <c r="C122" t="str">
         <v/>
@@ -1724,10 +1724,10 @@
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>图标</v>
+        <v>动画</v>
       </c>
       <c r="B123" t="str">
-        <v>icon</v>
+        <v>animation</v>
       </c>
       <c r="C123" t="str">
         <v/>
@@ -1735,10 +1735,10 @@
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>标签</v>
+        <v>标记</v>
       </c>
       <c r="B124" t="str">
-        <v>tab</v>
+        <v>sign</v>
       </c>
       <c r="C124" t="str">
         <v/>
@@ -1746,10 +1746,10 @@
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>列表</v>
+        <v>编辑框</v>
       </c>
       <c r="B125" t="str">
-        <v>list</v>
+        <v>edit</v>
       </c>
       <c r="C125" t="str">
         <v/>
@@ -1757,10 +1757,10 @@
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>静态文本框</v>
+        <v>播放</v>
       </c>
       <c r="B126" t="str">
-        <v>label</v>
+        <v>play</v>
       </c>
       <c r="C126" t="str">
         <v/>
@@ -1768,10 +1768,10 @@
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>单选框</v>
+        <v>自定义下拉框</v>
       </c>
       <c r="B127" t="str">
-        <v>radio</v>
+        <v>combo</v>
       </c>
       <c r="C127" t="str">
         <v/>
@@ -1779,10 +1779,10 @@
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>勾选框</v>
+        <v>树</v>
       </c>
       <c r="B128" t="str">
-        <v>checkbox</v>
+        <v>tree</v>
       </c>
       <c r="C128" t="str">
         <v/>
@@ -1790,10 +1790,10 @@
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>按钮</v>
+        <v>蒙版</v>
       </c>
       <c r="B129" t="str">
-        <v>btn / button</v>
+        <v>mask</v>
       </c>
       <c r="C129" t="str">
         <v/>
@@ -1801,10 +1801,10 @@
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>背景</v>
+        <v>内容</v>
       </c>
       <c r="B130" t="str">
-        <v>bg / background</v>
+        <v>content</v>
       </c>
       <c r="C130" t="str">
         <v/>
@@ -1812,10 +1812,10 @@
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>动画</v>
+        <v>普通</v>
       </c>
       <c r="B131" t="str">
-        <v>animation</v>
+        <v>normal</v>
       </c>
       <c r="C131" t="str">
         <v/>
@@ -1823,10 +1823,10 @@
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>标记</v>
+        <v>获取焦点</v>
       </c>
       <c r="B132" t="str">
-        <v>sign</v>
+        <v>focused</v>
       </c>
       <c r="C132" t="str">
         <v/>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>编辑框</v>
+        <v>已访问</v>
       </c>
       <c r="B133" t="str">
-        <v>edit</v>
+        <v>visited</v>
       </c>
       <c r="C133" t="str">
         <v/>
@@ -1845,10 +1845,10 @@
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>播放</v>
+        <v>悬停</v>
       </c>
       <c r="B134" t="str">
-        <v>play</v>
+        <v>hover</v>
       </c>
       <c r="C134" t="str">
         <v/>
@@ -1856,10 +1856,10 @@
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>自定义下拉框</v>
+        <v>默认</v>
       </c>
       <c r="B135" t="str">
-        <v>combo</v>
+        <v>default</v>
       </c>
       <c r="C135" t="str">
         <v/>
@@ -1867,10 +1867,10 @@
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>树</v>
+        <v>按下</v>
       </c>
       <c r="B136" t="str">
-        <v>tree</v>
+        <v>press</v>
       </c>
       <c r="C136" t="str">
         <v/>
@@ -1878,10 +1878,10 @@
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>蒙版</v>
+        <v>高亮</v>
       </c>
       <c r="B137" t="str">
-        <v>mask</v>
+        <v>highlight</v>
       </c>
       <c r="C137" t="str">
         <v/>
@@ -1889,10 +1889,10 @@
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>内容</v>
+        <v>禁用</v>
       </c>
       <c r="B138" t="str">
-        <v>content</v>
+        <v>disabled</v>
       </c>
       <c r="C138" t="str">
         <v/>
@@ -1900,10 +1900,10 @@
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>普通</v>
+        <v>高亮，特殊效果</v>
       </c>
       <c r="B139" t="str">
-        <v>normal</v>
+        <v>selected</v>
       </c>
       <c r="C139" t="str">
         <v/>
@@ -1911,10 +1911,10 @@
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>获取焦点</v>
+        <v>错误</v>
       </c>
       <c r="B140" t="str">
-        <v>focused</v>
+        <v>error</v>
       </c>
       <c r="C140" t="str">
         <v/>
@@ -1922,10 +1922,10 @@
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>已访问</v>
+        <v>完成</v>
       </c>
       <c r="B141" t="str">
-        <v>visited</v>
+        <v>complete</v>
       </c>
       <c r="C141" t="str">
         <v/>
@@ -1933,10 +1933,10 @@
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>悬停</v>
+        <v>空白</v>
       </c>
       <c r="B142" t="str">
-        <v>hover</v>
+        <v>blank</v>
       </c>
       <c r="C142" t="str">
         <v/>
@@ -1944,10 +1944,10 @@
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>默认</v>
+        <v>当前态，选中态</v>
       </c>
       <c r="B143" t="str">
-        <v>default</v>
+        <v>current</v>
       </c>
       <c r="C143" t="str">
         <v/>
@@ -1955,10 +1955,10 @@
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>按下</v>
+        <v>不可用</v>
       </c>
       <c r="B144" t="str">
-        <v>press</v>
+        <v>disabled</v>
       </c>
       <c r="C144" t="str">
         <v/>
@@ -1966,10 +1966,10 @@
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>高亮</v>
+        <v>顶部</v>
       </c>
       <c r="B145" t="str">
-        <v>highlight</v>
+        <v>top</v>
       </c>
       <c r="C145" t="str">
         <v/>
@@ -1977,10 +1977,10 @@
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>禁用</v>
+        <v>头部</v>
       </c>
       <c r="B146" t="str">
-        <v>disabled</v>
+        <v>header</v>
       </c>
       <c r="C146" t="str">
         <v/>
@@ -1988,10 +1988,10 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>高亮，特殊效果</v>
+        <v>中间</v>
       </c>
       <c r="B147" t="str">
-        <v>selected</v>
+        <v>middle</v>
       </c>
       <c r="C147" t="str">
         <v/>
@@ -1999,10 +1999,10 @@
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>错误</v>
+        <v>尾部</v>
       </c>
       <c r="B148" t="str">
-        <v>error</v>
+        <v>bottom</v>
       </c>
       <c r="C148" t="str">
         <v/>
@@ -2010,10 +2010,10 @@
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>完成</v>
+        <v>最后</v>
       </c>
       <c r="B149" t="str">
-        <v>complete</v>
+        <v>last</v>
       </c>
       <c r="C149" t="str">
         <v/>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>空白</v>
+        <v>底部</v>
       </c>
       <c r="B150" t="str">
-        <v>blank</v>
+        <v>footer</v>
       </c>
       <c r="C150" t="str">
         <v/>
@@ -2032,10 +2032,10 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>当前态，选中态</v>
+        <v>页面底部服务模块</v>
       </c>
       <c r="B151" t="str">
-        <v>current</v>
+        <v>mod_service</v>
       </c>
       <c r="C151" t="str">
         <v/>
@@ -2043,10 +2043,10 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>不可用</v>
+        <v>页面底部帮助模块</v>
       </c>
       <c r="B152" t="str">
-        <v>disabled</v>
+        <v>mod_help</v>
       </c>
       <c r="C152" t="str">
         <v/>
@@ -2054,10 +2054,10 @@
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>顶部</v>
+        <v>页面底部版权模块</v>
       </c>
       <c r="B153" t="str">
-        <v>top</v>
+        <v>mod_copyright</v>
       </c>
       <c r="C153" t="str">
         <v/>
@@ -2065,10 +2065,10 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>头部</v>
+        <v>第一</v>
       </c>
       <c r="B154" t="str">
-        <v>header</v>
+        <v>first</v>
       </c>
       <c r="C154" t="str">
         <v/>
@@ -2076,10 +2076,10 @@
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>中间</v>
+        <v>第二</v>
       </c>
       <c r="B155" t="str">
-        <v>middle</v>
+        <v>second</v>
       </c>
       <c r="C155" t="str">
         <v/>
@@ -2087,10 +2087,10 @@
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>尾部</v>
+        <v>确定</v>
       </c>
       <c r="B156" t="str">
-        <v>bottom</v>
+        <v>ok</v>
       </c>
       <c r="C156" t="str">
         <v/>
@@ -2098,10 +2098,10 @@
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>最后</v>
+        <v>对齐</v>
       </c>
       <c r="B157" t="str">
-        <v>last</v>
+        <v>align</v>
       </c>
       <c r="C157" t="str">
         <v/>
@@ -2109,10 +2109,10 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>底部</v>
+        <v>激活</v>
       </c>
       <c r="B158" t="str">
-        <v>footer</v>
+        <v>active</v>
       </c>
       <c r="C158" t="str">
         <v/>
@@ -2120,10 +2120,10 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>页面底部服务模块</v>
+        <v>绝对</v>
       </c>
       <c r="B159" t="str">
-        <v>mod_service</v>
+        <v>absolute</v>
       </c>
       <c r="C159" t="str">
         <v/>
@@ -2131,10 +2131,10 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>页面底部帮助模块</v>
+        <v>图像通道</v>
       </c>
       <c r="B160" t="str">
-        <v>mod_help</v>
+        <v>alpha</v>
       </c>
       <c r="C160" t="str">
         <v/>
@@ -2142,10 +2142,10 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>页面底部版权模块</v>
+        <v>动画</v>
       </c>
       <c r="B161" t="str">
-        <v>mod_copyright</v>
+        <v>animate</v>
       </c>
       <c r="C161" t="str">
         <v/>
@@ -2153,10 +2153,10 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>第一</v>
+        <v>动画片</v>
       </c>
       <c r="B162" t="str">
-        <v>first</v>
+        <v>animation</v>
       </c>
       <c r="C162" t="str">
         <v/>
@@ -2164,10 +2164,10 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>第二</v>
+        <v>提醒</v>
       </c>
       <c r="B163" t="str">
-        <v>second</v>
+        <v>alert</v>
       </c>
       <c r="C163" t="str">
         <v/>
@@ -2175,18 +2175,3428 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
+        <v>加</v>
+      </c>
+      <c r="B164" t="str">
+        <v>add</v>
+      </c>
+      <c r="C164" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>添加</v>
+      </c>
+      <c r="B165" t="str">
+        <v>append</v>
+      </c>
+      <c r="C165" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>之后</v>
+      </c>
+      <c r="B166" t="str">
+        <v>after</v>
+      </c>
+      <c r="C166" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>超过范围的三次方缓动</v>
+      </c>
+      <c r="B167" t="str">
+        <v xml:space="preserve">back </v>
+      </c>
+      <c r="C167" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>指数衰减的反弹缓动</v>
+      </c>
+      <c r="B168" t="str">
+        <v>bounce</v>
+      </c>
+      <c r="C168" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>在…之前</v>
+      </c>
+      <c r="B169" t="str">
+        <v>before</v>
+      </c>
+      <c r="C169" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>当输入框失焦的时候触发</v>
+      </c>
+      <c r="B170" t="str">
+        <v xml:space="preserve">blur </v>
+      </c>
+      <c r="C170" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>BOM</v>
+      </c>
+      <c r="B171" t="str">
+        <v xml:space="preserve">BOM </v>
+      </c>
+      <c r="C171" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>浏览器对象模型</v>
+      </c>
+      <c r="B172" t="str">
+        <v>Browser Object Model</v>
+      </c>
+      <c r="C172" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>失焦</v>
+      </c>
+      <c r="B173" t="str">
+        <v xml:space="preserve">blur </v>
+      </c>
+      <c r="C173" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>整个主程序</v>
+      </c>
+      <c r="B174" t="str">
+        <v>app</v>
+      </c>
+      <c r="C174" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>搜索</v>
+      </c>
+      <c r="B175" t="str">
+        <v>search</v>
+      </c>
+      <c r="C175" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>结果</v>
+      </c>
+      <c r="B176" t="str">
+        <v>results</v>
+      </c>
+      <c r="C176" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>活动</v>
+      </c>
+      <c r="B177" t="str">
+        <v>activity</v>
+      </c>
+      <c r="C177" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>信息</v>
+      </c>
+      <c r="B178" t="str">
+        <v>msg / messages</v>
+      </c>
+      <c r="C178" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>首页</v>
+      </c>
+      <c r="B179" t="str">
+        <v>home</v>
+      </c>
+      <c r="C179" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>应用详情</v>
+      </c>
+      <c r="B180" t="str">
+        <v>app detail</v>
+      </c>
+      <c r="C180" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>个人中心</v>
+      </c>
+      <c r="B181" t="str">
+        <v>personal center</v>
+      </c>
+      <c r="C181" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>设置</v>
+      </c>
+      <c r="B182" t="str">
+        <v>settings</v>
+      </c>
+      <c r="C182" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>软件</v>
+      </c>
+      <c r="B183" t="str">
+        <v>software</v>
+      </c>
+      <c r="C183" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>日历</v>
+      </c>
+      <c r="B184" t="str">
+        <v>calendar</v>
+      </c>
+      <c r="C184" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>联系人</v>
+      </c>
+      <c r="B185" t="str">
+        <v>contacts</v>
+      </c>
+      <c r="C185" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>新闻</v>
+      </c>
+      <c r="B186" t="str">
+        <v>news</v>
+      </c>
+      <c r="C186" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>游戏</v>
+      </c>
+      <c r="B187" t="str">
+        <v>game</v>
+      </c>
+      <c r="C187" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>相机</v>
+      </c>
+      <c r="B188" t="str">
+        <v>camera</v>
+      </c>
+      <c r="C188" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>控制中心</v>
+      </c>
+      <c r="B189" t="str">
+        <v>control center</v>
+      </c>
+      <c r="C189" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>笔记</v>
+      </c>
+      <c r="B190" t="str">
+        <v>notes</v>
+      </c>
+      <c r="C190" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>管理</v>
+      </c>
+      <c r="B191" t="str">
+        <v>management</v>
+      </c>
+      <c r="C191" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>相片</v>
+      </c>
+      <c r="B192" t="str">
+        <v>photo</v>
+      </c>
+      <c r="C192" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>健康</v>
+      </c>
+      <c r="B193" t="str">
+        <v>health</v>
+      </c>
+      <c r="C193" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>天气</v>
+      </c>
+      <c r="B194" t="str">
+        <v>weather</v>
+      </c>
+      <c r="C194" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>发现</v>
+      </c>
+      <c r="B195" t="str">
+        <v>find</v>
+      </c>
+      <c r="C195" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>视频</v>
+      </c>
+      <c r="B196" t="str">
+        <v>video</v>
+      </c>
+      <c r="C196" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>邮件</v>
+      </c>
+      <c r="B197" t="str">
+        <v>mail</v>
+      </c>
+      <c r="C197" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>手表</v>
+      </c>
+      <c r="B198" t="str">
+        <v>watch</v>
+      </c>
+      <c r="C198" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>探索</v>
+      </c>
+      <c r="B199" t="str">
+        <v>explore</v>
+      </c>
+      <c r="C199" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>音乐</v>
+      </c>
+      <c r="B200" t="str">
+        <v>music</v>
+      </c>
+      <c r="C200" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>地图</v>
+      </c>
+      <c r="B201" t="str">
+        <v>maps</v>
+      </c>
+      <c r="C201" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v>锁屏</v>
+      </c>
+      <c r="B202" t="str">
+        <v>lock screen</v>
+      </c>
+      <c r="C202" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v>启动图</v>
+      </c>
+      <c r="B203" t="str">
+        <v>default</v>
+      </c>
+      <c r="C203" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>关于</v>
+      </c>
+      <c r="B204" t="str">
+        <v>about</v>
+      </c>
+      <c r="C204" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v>账户</v>
+      </c>
+      <c r="B205" t="str">
+        <v>account</v>
+      </c>
+      <c r="C205" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v>箭头图标</v>
+      </c>
+      <c r="B206" t="str">
+        <v>arrow</v>
+      </c>
+      <c r="C206" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v>文章</v>
+      </c>
+      <c r="B207" t="str">
+        <v>article</v>
+      </c>
+      <c r="C207" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v>边栏</v>
+      </c>
+      <c r="B208" t="str">
+        <v>aside</v>
+      </c>
+      <c r="C208" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v>头像</v>
+      </c>
+      <c r="B209" t="str">
+        <v>avatar</v>
+      </c>
+      <c r="C209" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="str">
+        <v>品牌化</v>
+      </c>
+      <c r="B210" t="str">
+        <v>baranding</v>
+      </c>
+      <c r="C210" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v>面包屑</v>
+      </c>
+      <c r="B211" t="str">
+        <v>crumb</v>
+      </c>
+      <c r="C211" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="str">
+        <v>分类</v>
+      </c>
+      <c r="B212" t="str">
+        <v>categoty</v>
+      </c>
+      <c r="C212" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="str">
+        <v>列</v>
+      </c>
+      <c r="B213" t="str">
+        <v>clo，column</v>
+      </c>
+      <c r="C213" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="str">
+        <v>评论</v>
+      </c>
+      <c r="B214" t="str">
+        <v>comment</v>
+      </c>
+      <c r="C214" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="str">
+        <v>社区</v>
+      </c>
+      <c r="B215" t="str">
+        <v>community</v>
+      </c>
+      <c r="C215" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v>版权</v>
+      </c>
+      <c r="B216" t="str">
+        <v>copyright</v>
+      </c>
+      <c r="C216" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v>描述</v>
+      </c>
+      <c r="B217" t="str">
+        <v>description</v>
+      </c>
+      <c r="C217" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="str">
+        <v>细节</v>
+      </c>
+      <c r="B218" t="str">
+        <v>details</v>
+      </c>
+      <c r="C218" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="str">
+        <v>偶数，常用于多行列表或表格中</v>
+      </c>
+      <c r="B219" t="str">
+        <v>even</v>
+      </c>
+      <c r="C219" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="str">
+        <v>奇数，常用于多行列表或表格中</v>
+      </c>
+      <c r="B220" t="str">
+        <v>odd</v>
+      </c>
+      <c r="C220" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="str">
+        <v>专题</v>
+      </c>
+      <c r="B221" t="str">
+        <v>feature</v>
+      </c>
+      <c r="C221" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="str">
+        <v>论坛</v>
+      </c>
+      <c r="B222" t="str">
+        <v>forum</v>
+      </c>
+      <c r="C222" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="str">
+        <v>帮助</v>
+      </c>
+      <c r="B223" t="str">
+        <v>help</v>
+      </c>
+      <c r="C223" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="str">
+        <v>编辑菜单</v>
+      </c>
+      <c r="B224" t="str">
+        <v>edit menu</v>
+      </c>
+      <c r="C224" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="str">
+        <v>状态栏</v>
+      </c>
+      <c r="B225" t="str">
+        <v>status bar</v>
+      </c>
+      <c r="C225" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="str">
+        <v>搜索栏</v>
+      </c>
+      <c r="B226" t="str">
+        <v>search bar</v>
+      </c>
+      <c r="C226" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="str">
+        <v>标签栏</v>
+      </c>
+      <c r="B227" t="str">
+        <v>tab bar</v>
+      </c>
+      <c r="C227" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="str">
+        <v>工具栏</v>
+      </c>
+      <c r="B228" t="str">
+        <v>tool bar</v>
+      </c>
+      <c r="C228" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="str">
+        <v>导航栏</v>
+      </c>
+      <c r="B229" t="str">
+        <v>navbar / navigation bar</v>
+      </c>
+      <c r="C229" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="str">
+        <v>提醒视图</v>
+      </c>
+      <c r="B230" t="str">
+        <v>alert view</v>
+      </c>
+      <c r="C230" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="str">
+        <v>弹出视图</v>
+      </c>
+      <c r="B231" t="str">
+        <v>pop / popovers</v>
+      </c>
+      <c r="C231" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="str">
+        <v>表格视图</v>
+      </c>
+      <c r="B232" t="str">
+        <v>table view</v>
+      </c>
+      <c r="C232" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="str">
+        <v>活动视图</v>
+      </c>
+      <c r="B233" t="str">
+        <v>activity view</v>
+      </c>
+      <c r="C233" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="str">
+        <v>开关</v>
+      </c>
+      <c r="B234" t="str">
+        <v>switch</v>
+      </c>
+      <c r="C234" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="str">
+        <v>分段控制</v>
+      </c>
+      <c r="B235" t="str">
+        <v>segmented control</v>
+      </c>
+      <c r="C235" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="str">
+        <v>选择器</v>
+      </c>
+      <c r="B236" t="str">
+        <v>pickers</v>
+      </c>
+      <c r="C236" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="str">
+        <v>弹窗</v>
+      </c>
+      <c r="B237" t="str">
+        <v>popup</v>
+      </c>
+      <c r="C237" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="str">
+        <v>滑竿</v>
+      </c>
+      <c r="B238" t="str">
+        <v>sliders</v>
+      </c>
+      <c r="C238" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="str">
+        <v>扫描</v>
+      </c>
+      <c r="B239" t="str">
+        <v>scanning</v>
+      </c>
+      <c r="C239" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="str">
+        <v>音频</v>
+      </c>
+      <c r="B240" t="str">
+        <v>audio</v>
+      </c>
+      <c r="C240" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="str">
+        <v>视频</v>
+      </c>
+      <c r="B241" t="str">
+        <v>video</v>
+      </c>
+      <c r="C241" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="str">
+        <v>图表</v>
+      </c>
+      <c r="B242" t="str">
+        <v>chart</v>
+      </c>
+      <c r="C242" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="str">
+        <v>清除浮动</v>
+      </c>
+      <c r="B243" t="str">
+        <v>clearfix</v>
+      </c>
+      <c r="C243" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="str">
+        <v>取消</v>
+      </c>
+      <c r="B244" t="str">
+        <v>cancel</v>
+      </c>
+      <c r="C244" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="str">
+        <v>安装</v>
+      </c>
+      <c r="B245" t="str">
+        <v>install</v>
+      </c>
+      <c r="C245" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="str">
+        <v>卸载</v>
+      </c>
+      <c r="B246" t="str">
+        <v>uninstall</v>
+      </c>
+      <c r="C246" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="str">
+        <v>添加</v>
+      </c>
+      <c r="B247" t="str">
+        <v>add</v>
+      </c>
+      <c r="C247" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="str">
+        <v>删除</v>
+      </c>
+      <c r="B248" t="str">
+        <v>delete</v>
+      </c>
+      <c r="C248" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="str">
+        <v>更新</v>
+      </c>
+      <c r="B249" t="str">
+        <v>update</v>
+      </c>
+      <c r="C249" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="str">
+        <v>最大化</v>
+      </c>
+      <c r="B250" t="str">
+        <v>max</v>
+      </c>
+      <c r="C250" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="str">
+        <v>最小化</v>
+      </c>
+      <c r="B251" t="str">
+        <v>min</v>
+      </c>
+      <c r="C251" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="str">
+        <v>导出</v>
+      </c>
+      <c r="B252" t="str">
+        <v>export</v>
+      </c>
+      <c r="C252" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="str">
+        <v>导入</v>
+      </c>
+      <c r="B253" t="str">
+        <v>import</v>
+      </c>
+      <c r="C253" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="str">
+        <v>菜单</v>
+      </c>
+      <c r="B254" t="str">
+        <v>menu</v>
+      </c>
+      <c r="C254" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="str">
+        <v>选择</v>
+      </c>
+      <c r="B255" t="str">
+        <v>select</v>
+      </c>
+      <c r="C255" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="str">
+        <v>前进</v>
+      </c>
+      <c r="B256" t="str">
+        <v>forward</v>
+      </c>
+      <c r="C256" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="str">
+        <v>后退</v>
+      </c>
+      <c r="B257" t="str">
+        <v>back</v>
+      </c>
+      <c r="C257" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="str">
+        <v>搜索</v>
+      </c>
+      <c r="B258" t="str">
+        <v>search</v>
+      </c>
+      <c r="C258" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="str">
+        <v>查看</v>
+      </c>
+      <c r="B259" t="str">
+        <v>view</v>
+      </c>
+      <c r="C259" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="str">
+        <v>更多</v>
+      </c>
+      <c r="B260" t="str">
+        <v>more</v>
+      </c>
+      <c r="C260" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="str">
+        <v>下载</v>
+      </c>
+      <c r="B261" t="str">
+        <v>download</v>
+      </c>
+      <c r="C261" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="str">
+        <v>加载</v>
+      </c>
+      <c r="B262" t="str">
+        <v>loading</v>
+      </c>
+      <c r="C262" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="str">
+        <v>等待</v>
+      </c>
+      <c r="B263" t="str">
+        <v>waiting</v>
+      </c>
+      <c r="C263" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="str">
+        <v>刷新</v>
+      </c>
+      <c r="B264" t="str">
+        <v>refresh</v>
+      </c>
+      <c r="C264" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="str">
+        <v>暂停</v>
+      </c>
+      <c r="B265" t="str">
+        <v>pause</v>
+      </c>
+      <c r="C265" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="str">
+        <v>继续</v>
+      </c>
+      <c r="B266" t="str">
+        <v>continue</v>
+      </c>
+      <c r="C266" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="str">
+        <v>重新开始</v>
+      </c>
+      <c r="B267" t="str">
+        <v>restart</v>
+      </c>
+      <c r="C267" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="str">
+        <v>发送</v>
+      </c>
+      <c r="B268" t="str">
+        <v>send</v>
+      </c>
+      <c r="C268" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="str">
+        <v>关闭</v>
+      </c>
+      <c r="B269" t="str">
+        <v>close</v>
+      </c>
+      <c r="C269" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="str">
+        <v>标题，说明</v>
+      </c>
+      <c r="B270" t="str">
+        <v>caption</v>
+      </c>
+      <c r="C270" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="str">
+        <v>容器</v>
+      </c>
+      <c r="B271" t="str">
+        <v>container</v>
+      </c>
+      <c r="C271" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="str">
+        <v>图标</v>
+      </c>
+      <c r="B272" t="str">
+        <v>icon</v>
+      </c>
+      <c r="C272" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="str">
+        <v>分页</v>
+      </c>
+      <c r="B273" t="str">
+        <v>pagination</v>
+      </c>
+      <c r="C273" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="str">
+        <v>图片</v>
+      </c>
+      <c r="B274" t="str">
+        <v>img / image</v>
+      </c>
+      <c r="C274" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="str">
+        <v>滚动条</v>
+      </c>
+      <c r="B275" t="str">
+        <v>scroll</v>
+      </c>
+      <c r="C275" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="str">
+        <v>进度条</v>
+      </c>
+      <c r="B276" t="str">
+        <v>progress</v>
+      </c>
+      <c r="C276" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="str">
+        <v>线条</v>
+      </c>
+      <c r="B277" t="str">
+        <v>line</v>
+      </c>
+      <c r="C277" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="str">
+        <v>图标</v>
+      </c>
+      <c r="B278" t="str">
+        <v>icon</v>
+      </c>
+      <c r="C278" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="str">
+        <v>标签</v>
+      </c>
+      <c r="B279" t="str">
+        <v>tab</v>
+      </c>
+      <c r="C279" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="str">
+        <v>列表</v>
+      </c>
+      <c r="B280" t="str">
+        <v>list</v>
+      </c>
+      <c r="C280" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="str">
+        <v>静态文本框</v>
+      </c>
+      <c r="B281" t="str">
+        <v>label</v>
+      </c>
+      <c r="C281" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="str">
+        <v>单选框</v>
+      </c>
+      <c r="B282" t="str">
+        <v>radio</v>
+      </c>
+      <c r="C282" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="str">
+        <v>勾选框</v>
+      </c>
+      <c r="B283" t="str">
+        <v>checkbox</v>
+      </c>
+      <c r="C283" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="str">
+        <v>按钮</v>
+      </c>
+      <c r="B284" t="str">
+        <v>btn / button</v>
+      </c>
+      <c r="C284" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="str">
+        <v>背景</v>
+      </c>
+      <c r="B285" t="str">
+        <v>bg / background</v>
+      </c>
+      <c r="C285" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="str">
+        <v>动画</v>
+      </c>
+      <c r="B286" t="str">
+        <v>animation</v>
+      </c>
+      <c r="C286" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="str">
+        <v>标记</v>
+      </c>
+      <c r="B287" t="str">
+        <v>sign</v>
+      </c>
+      <c r="C287" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="str">
+        <v>编辑框</v>
+      </c>
+      <c r="B288" t="str">
+        <v>edit</v>
+      </c>
+      <c r="C288" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="str">
+        <v>播放</v>
+      </c>
+      <c r="B289" t="str">
+        <v>play</v>
+      </c>
+      <c r="C289" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="str">
+        <v>自定义下拉框</v>
+      </c>
+      <c r="B290" t="str">
+        <v>combo</v>
+      </c>
+      <c r="C290" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="str">
+        <v>树</v>
+      </c>
+      <c r="B291" t="str">
+        <v>tree</v>
+      </c>
+      <c r="C291" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="str">
+        <v>蒙版</v>
+      </c>
+      <c r="B292" t="str">
+        <v>mask</v>
+      </c>
+      <c r="C292" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="str">
+        <v>内容</v>
+      </c>
+      <c r="B293" t="str">
+        <v>content</v>
+      </c>
+      <c r="C293" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="str">
+        <v>普通</v>
+      </c>
+      <c r="B294" t="str">
+        <v>normal</v>
+      </c>
+      <c r="C294" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="str">
+        <v>获取焦点</v>
+      </c>
+      <c r="B295" t="str">
+        <v>focused</v>
+      </c>
+      <c r="C295" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="str">
+        <v>已访问</v>
+      </c>
+      <c r="B296" t="str">
+        <v>visited</v>
+      </c>
+      <c r="C296" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="str">
+        <v>悬停</v>
+      </c>
+      <c r="B297" t="str">
+        <v>hover</v>
+      </c>
+      <c r="C297" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="str">
+        <v>默认</v>
+      </c>
+      <c r="B298" t="str">
+        <v>default</v>
+      </c>
+      <c r="C298" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="str">
+        <v>按下</v>
+      </c>
+      <c r="B299" t="str">
+        <v>press</v>
+      </c>
+      <c r="C299" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="str">
+        <v>高亮</v>
+      </c>
+      <c r="B300" t="str">
+        <v>highlight</v>
+      </c>
+      <c r="C300" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="str">
+        <v>禁用</v>
+      </c>
+      <c r="B301" t="str">
+        <v>disabled</v>
+      </c>
+      <c r="C301" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="str">
+        <v>高亮，特殊效果</v>
+      </c>
+      <c r="B302" t="str">
+        <v>selected</v>
+      </c>
+      <c r="C302" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="str">
+        <v>错误</v>
+      </c>
+      <c r="B303" t="str">
+        <v>error</v>
+      </c>
+      <c r="C303" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="str">
+        <v>完成</v>
+      </c>
+      <c r="B304" t="str">
+        <v>complete</v>
+      </c>
+      <c r="C304" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="str">
+        <v>空白</v>
+      </c>
+      <c r="B305" t="str">
+        <v>blank</v>
+      </c>
+      <c r="C305" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="str">
+        <v>当前态，选中态</v>
+      </c>
+      <c r="B306" t="str">
+        <v>current</v>
+      </c>
+      <c r="C306" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="str">
+        <v>不可用</v>
+      </c>
+      <c r="B307" t="str">
+        <v>disabled</v>
+      </c>
+      <c r="C307" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="str">
+        <v>顶部</v>
+      </c>
+      <c r="B308" t="str">
+        <v>top</v>
+      </c>
+      <c r="C308" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="str">
+        <v>头部</v>
+      </c>
+      <c r="B309" t="str">
+        <v>header</v>
+      </c>
+      <c r="C309" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="str">
+        <v>中间</v>
+      </c>
+      <c r="B310" t="str">
+        <v>middle</v>
+      </c>
+      <c r="C310" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="str">
+        <v>尾部</v>
+      </c>
+      <c r="B311" t="str">
+        <v>bottom</v>
+      </c>
+      <c r="C311" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="str">
+        <v>最后</v>
+      </c>
+      <c r="B312" t="str">
+        <v>last</v>
+      </c>
+      <c r="C312" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="str">
+        <v>底部</v>
+      </c>
+      <c r="B313" t="str">
+        <v>footer</v>
+      </c>
+      <c r="C313" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="str">
+        <v>页面底部服务模块</v>
+      </c>
+      <c r="B314" t="str">
+        <v>mod_service</v>
+      </c>
+      <c r="C314" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="str">
+        <v>页面底部帮助模块</v>
+      </c>
+      <c r="B315" t="str">
+        <v>mod_help</v>
+      </c>
+      <c r="C315" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="str">
+        <v>页面底部版权模块</v>
+      </c>
+      <c r="B316" t="str">
+        <v>mod_copyright</v>
+      </c>
+      <c r="C316" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="str">
+        <v>第一</v>
+      </c>
+      <c r="B317" t="str">
+        <v>first</v>
+      </c>
+      <c r="C317" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="str">
+        <v>第二</v>
+      </c>
+      <c r="B318" t="str">
+        <v>second</v>
+      </c>
+      <c r="C318" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="str">
         <v>确定</v>
       </c>
-      <c r="B164" t="str">
+      <c r="B319" t="str">
         <v>ok</v>
       </c>
-      <c r="C164" t="str">
+      <c r="C319" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="str">
+        <v>对齐</v>
+      </c>
+      <c r="B320" t="str">
+        <v>align</v>
+      </c>
+      <c r="C320" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="str">
+        <v>激活</v>
+      </c>
+      <c r="B321" t="str">
+        <v>active</v>
+      </c>
+      <c r="C321" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="str">
+        <v>绝对</v>
+      </c>
+      <c r="B322" t="str">
+        <v>absolute</v>
+      </c>
+      <c r="C322" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="str">
+        <v>指数衰减的反弹缓动</v>
+      </c>
+      <c r="B323" t="str">
+        <v>bounce</v>
+      </c>
+      <c r="C323" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="str">
+        <v>在…之前</v>
+      </c>
+      <c r="B324" t="str">
+        <v>before</v>
+      </c>
+      <c r="C324" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="str">
+        <v>当输入框失焦的时候触发</v>
+      </c>
+      <c r="B325" t="str">
+        <v xml:space="preserve">blur </v>
+      </c>
+      <c r="C325" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="str">
+        <v>BOM</v>
+      </c>
+      <c r="B326" t="str">
+        <v xml:space="preserve">BOM </v>
+      </c>
+      <c r="C326" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="str">
+        <v>浏览器对象模型</v>
+      </c>
+      <c r="B327" t="str">
+        <v>Browser Object Model</v>
+      </c>
+      <c r="C327" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="str">
+        <v>失焦</v>
+      </c>
+      <c r="B328" t="str">
+        <v xml:space="preserve">blur </v>
+      </c>
+      <c r="C328" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="str">
+        <v>整个主程序</v>
+      </c>
+      <c r="B329" t="str">
+        <v>app</v>
+      </c>
+      <c r="C329" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="str">
+        <v>搜索</v>
+      </c>
+      <c r="B330" t="str">
+        <v>search</v>
+      </c>
+      <c r="C330" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="str">
+        <v>结果</v>
+      </c>
+      <c r="B331" t="str">
+        <v>results</v>
+      </c>
+      <c r="C331" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="str">
+        <v>活动</v>
+      </c>
+      <c r="B332" t="str">
+        <v>activity</v>
+      </c>
+      <c r="C332" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="str">
+        <v>信息</v>
+      </c>
+      <c r="B333" t="str">
+        <v>msg / messages</v>
+      </c>
+      <c r="C333" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="str">
+        <v>首页</v>
+      </c>
+      <c r="B334" t="str">
+        <v>home</v>
+      </c>
+      <c r="C334" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="str">
+        <v>应用详情</v>
+      </c>
+      <c r="B335" t="str">
+        <v>app detail</v>
+      </c>
+      <c r="C335" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="str">
+        <v>个人中心</v>
+      </c>
+      <c r="B336" t="str">
+        <v>personal center</v>
+      </c>
+      <c r="C336" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="str">
+        <v>设置</v>
+      </c>
+      <c r="B337" t="str">
+        <v>settings</v>
+      </c>
+      <c r="C337" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="str">
+        <v>软件</v>
+      </c>
+      <c r="B338" t="str">
+        <v>software</v>
+      </c>
+      <c r="C338" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="str">
+        <v>日历</v>
+      </c>
+      <c r="B339" t="str">
+        <v>calendar</v>
+      </c>
+      <c r="C339" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="str">
+        <v>联系人</v>
+      </c>
+      <c r="B340" t="str">
+        <v>contacts</v>
+      </c>
+      <c r="C340" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="str">
+        <v>新闻</v>
+      </c>
+      <c r="B341" t="str">
+        <v>news</v>
+      </c>
+      <c r="C341" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="str">
+        <v>游戏</v>
+      </c>
+      <c r="B342" t="str">
+        <v>game</v>
+      </c>
+      <c r="C342" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="str">
+        <v>相机</v>
+      </c>
+      <c r="B343" t="str">
+        <v>camera</v>
+      </c>
+      <c r="C343" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="str">
+        <v>控制中心</v>
+      </c>
+      <c r="B344" t="str">
+        <v>control center</v>
+      </c>
+      <c r="C344" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="str">
+        <v>笔记</v>
+      </c>
+      <c r="B345" t="str">
+        <v>notes</v>
+      </c>
+      <c r="C345" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="str">
+        <v>管理</v>
+      </c>
+      <c r="B346" t="str">
+        <v>management</v>
+      </c>
+      <c r="C346" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="str">
+        <v>相片</v>
+      </c>
+      <c r="B347" t="str">
+        <v>photo</v>
+      </c>
+      <c r="C347" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="str">
+        <v>健康</v>
+      </c>
+      <c r="B348" t="str">
+        <v>health</v>
+      </c>
+      <c r="C348" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="str">
+        <v>天气</v>
+      </c>
+      <c r="B349" t="str">
+        <v>weather</v>
+      </c>
+      <c r="C349" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="str">
+        <v>发现</v>
+      </c>
+      <c r="B350" t="str">
+        <v>find</v>
+      </c>
+      <c r="C350" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="str">
+        <v>视频</v>
+      </c>
+      <c r="B351" t="str">
+        <v>video</v>
+      </c>
+      <c r="C351" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="str">
+        <v>邮件</v>
+      </c>
+      <c r="B352" t="str">
+        <v>mail</v>
+      </c>
+      <c r="C352" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="str">
+        <v>手表</v>
+      </c>
+      <c r="B353" t="str">
+        <v>watch</v>
+      </c>
+      <c r="C353" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="str">
+        <v>探索</v>
+      </c>
+      <c r="B354" t="str">
+        <v>explore</v>
+      </c>
+      <c r="C354" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="str">
+        <v>音乐</v>
+      </c>
+      <c r="B355" t="str">
+        <v>music</v>
+      </c>
+      <c r="C355" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="str">
+        <v>地图</v>
+      </c>
+      <c r="B356" t="str">
+        <v>maps</v>
+      </c>
+      <c r="C356" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="str">
+        <v>锁屏</v>
+      </c>
+      <c r="B357" t="str">
+        <v>lock screen</v>
+      </c>
+      <c r="C357" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="str">
+        <v>启动图</v>
+      </c>
+      <c r="B358" t="str">
+        <v>default</v>
+      </c>
+      <c r="C358" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="str">
+        <v>关于</v>
+      </c>
+      <c r="B359" t="str">
+        <v>about</v>
+      </c>
+      <c r="C359" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="str">
+        <v>账户</v>
+      </c>
+      <c r="B360" t="str">
+        <v>account</v>
+      </c>
+      <c r="C360" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="str">
+        <v>箭头图标</v>
+      </c>
+      <c r="B361" t="str">
+        <v>arrow</v>
+      </c>
+      <c r="C361" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="str">
+        <v>文章</v>
+      </c>
+      <c r="B362" t="str">
+        <v>article</v>
+      </c>
+      <c r="C362" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="str">
+        <v>边栏</v>
+      </c>
+      <c r="B363" t="str">
+        <v>aside</v>
+      </c>
+      <c r="C363" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="str">
+        <v>头像</v>
+      </c>
+      <c r="B364" t="str">
+        <v>avatar</v>
+      </c>
+      <c r="C364" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="str">
+        <v>品牌化</v>
+      </c>
+      <c r="B365" t="str">
+        <v>baranding</v>
+      </c>
+      <c r="C365" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="str">
+        <v>面包屑</v>
+      </c>
+      <c r="B366" t="str">
+        <v>crumb</v>
+      </c>
+      <c r="C366" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="str">
+        <v>分类</v>
+      </c>
+      <c r="B367" t="str">
+        <v>categoty</v>
+      </c>
+      <c r="C367" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="str">
+        <v>列</v>
+      </c>
+      <c r="B368" t="str">
+        <v>clo，column</v>
+      </c>
+      <c r="C368" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="str">
+        <v>评论</v>
+      </c>
+      <c r="B369" t="str">
+        <v>comment</v>
+      </c>
+      <c r="C369" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="str">
+        <v>社区</v>
+      </c>
+      <c r="B370" t="str">
+        <v>community</v>
+      </c>
+      <c r="C370" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="str">
+        <v>版权</v>
+      </c>
+      <c r="B371" t="str">
+        <v>copyright</v>
+      </c>
+      <c r="C371" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="str">
+        <v>描述</v>
+      </c>
+      <c r="B372" t="str">
+        <v>description</v>
+      </c>
+      <c r="C372" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="str">
+        <v>细节</v>
+      </c>
+      <c r="B373" t="str">
+        <v>details</v>
+      </c>
+      <c r="C373" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="str">
+        <v>偶数，常用于多行列表或表格中</v>
+      </c>
+      <c r="B374" t="str">
+        <v>even</v>
+      </c>
+      <c r="C374" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="str">
+        <v>奇数，常用于多行列表或表格中</v>
+      </c>
+      <c r="B375" t="str">
+        <v>odd</v>
+      </c>
+      <c r="C375" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="str">
+        <v>专题</v>
+      </c>
+      <c r="B376" t="str">
+        <v>feature</v>
+      </c>
+      <c r="C376" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="str">
+        <v>论坛</v>
+      </c>
+      <c r="B377" t="str">
+        <v>forum</v>
+      </c>
+      <c r="C377" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="str">
+        <v>帮助</v>
+      </c>
+      <c r="B378" t="str">
+        <v>help</v>
+      </c>
+      <c r="C378" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="str">
+        <v>编辑菜单</v>
+      </c>
+      <c r="B379" t="str">
+        <v>edit menu</v>
+      </c>
+      <c r="C379" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="str">
+        <v>状态栏</v>
+      </c>
+      <c r="B380" t="str">
+        <v>status bar</v>
+      </c>
+      <c r="C380" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="str">
+        <v>搜索栏</v>
+      </c>
+      <c r="B381" t="str">
+        <v>search bar</v>
+      </c>
+      <c r="C381" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="str">
+        <v>标签栏</v>
+      </c>
+      <c r="B382" t="str">
+        <v>tab bar</v>
+      </c>
+      <c r="C382" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="str">
+        <v>工具栏</v>
+      </c>
+      <c r="B383" t="str">
+        <v>tool bar</v>
+      </c>
+      <c r="C383" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="str">
+        <v>导航栏</v>
+      </c>
+      <c r="B384" t="str">
+        <v>navbar / navigation bar</v>
+      </c>
+      <c r="C384" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="str">
+        <v>提醒视图</v>
+      </c>
+      <c r="B385" t="str">
+        <v>alert view</v>
+      </c>
+      <c r="C385" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="str">
+        <v>弹出视图</v>
+      </c>
+      <c r="B386" t="str">
+        <v>pop / popovers</v>
+      </c>
+      <c r="C386" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="str">
+        <v>表格视图</v>
+      </c>
+      <c r="B387" t="str">
+        <v>table view</v>
+      </c>
+      <c r="C387" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="str">
+        <v>活动视图</v>
+      </c>
+      <c r="B388" t="str">
+        <v>activity view</v>
+      </c>
+      <c r="C388" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="str">
+        <v>开关</v>
+      </c>
+      <c r="B389" t="str">
+        <v>switch</v>
+      </c>
+      <c r="C389" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="str">
+        <v>分段控制</v>
+      </c>
+      <c r="B390" t="str">
+        <v>segmented control</v>
+      </c>
+      <c r="C390" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="str">
+        <v>选择器</v>
+      </c>
+      <c r="B391" t="str">
+        <v>pickers</v>
+      </c>
+      <c r="C391" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="str">
+        <v>弹窗</v>
+      </c>
+      <c r="B392" t="str">
+        <v>popup</v>
+      </c>
+      <c r="C392" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="str">
+        <v>滑竿</v>
+      </c>
+      <c r="B393" t="str">
+        <v>sliders</v>
+      </c>
+      <c r="C393" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="str">
+        <v>扫描</v>
+      </c>
+      <c r="B394" t="str">
+        <v>scanning</v>
+      </c>
+      <c r="C394" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="str">
+        <v>音频</v>
+      </c>
+      <c r="B395" t="str">
+        <v>audio</v>
+      </c>
+      <c r="C395" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="str">
+        <v>视频</v>
+      </c>
+      <c r="B396" t="str">
+        <v>video</v>
+      </c>
+      <c r="C396" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="str">
+        <v>图表</v>
+      </c>
+      <c r="B397" t="str">
+        <v>chart</v>
+      </c>
+      <c r="C397" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="str">
+        <v>清除浮动</v>
+      </c>
+      <c r="B398" t="str">
+        <v>clearfix</v>
+      </c>
+      <c r="C398" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="str">
+        <v>取消</v>
+      </c>
+      <c r="B399" t="str">
+        <v>cancel</v>
+      </c>
+      <c r="C399" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="str">
+        <v>安装</v>
+      </c>
+      <c r="B400" t="str">
+        <v>install</v>
+      </c>
+      <c r="C400" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="str">
+        <v>卸载</v>
+      </c>
+      <c r="B401" t="str">
+        <v>uninstall</v>
+      </c>
+      <c r="C401" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="str">
+        <v>添加</v>
+      </c>
+      <c r="B402" t="str">
+        <v>add</v>
+      </c>
+      <c r="C402" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="str">
+        <v>删除</v>
+      </c>
+      <c r="B403" t="str">
+        <v>delete</v>
+      </c>
+      <c r="C403" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="str">
+        <v>更新</v>
+      </c>
+      <c r="B404" t="str">
+        <v>update</v>
+      </c>
+      <c r="C404" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="str">
+        <v>最大化</v>
+      </c>
+      <c r="B405" t="str">
+        <v>max</v>
+      </c>
+      <c r="C405" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="str">
+        <v>最小化</v>
+      </c>
+      <c r="B406" t="str">
+        <v>min</v>
+      </c>
+      <c r="C406" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="str">
+        <v>导出</v>
+      </c>
+      <c r="B407" t="str">
+        <v>export</v>
+      </c>
+      <c r="C407" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="str">
+        <v>导入</v>
+      </c>
+      <c r="B408" t="str">
+        <v>import</v>
+      </c>
+      <c r="C408" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="str">
+        <v>菜单</v>
+      </c>
+      <c r="B409" t="str">
+        <v>menu</v>
+      </c>
+      <c r="C409" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="str">
+        <v>选择</v>
+      </c>
+      <c r="B410" t="str">
+        <v>select</v>
+      </c>
+      <c r="C410" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="str">
+        <v>前进</v>
+      </c>
+      <c r="B411" t="str">
+        <v>forward</v>
+      </c>
+      <c r="C411" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="str">
+        <v>后退</v>
+      </c>
+      <c r="B412" t="str">
+        <v>back</v>
+      </c>
+      <c r="C412" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="str">
+        <v>搜索</v>
+      </c>
+      <c r="B413" t="str">
+        <v>search</v>
+      </c>
+      <c r="C413" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="str">
+        <v>查看</v>
+      </c>
+      <c r="B414" t="str">
+        <v>view</v>
+      </c>
+      <c r="C414" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="str">
+        <v>更多</v>
+      </c>
+      <c r="B415" t="str">
+        <v>more</v>
+      </c>
+      <c r="C415" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="str">
+        <v>下载</v>
+      </c>
+      <c r="B416" t="str">
+        <v>download</v>
+      </c>
+      <c r="C416" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="str">
+        <v>加载</v>
+      </c>
+      <c r="B417" t="str">
+        <v>loading</v>
+      </c>
+      <c r="C417" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="str">
+        <v>等待</v>
+      </c>
+      <c r="B418" t="str">
+        <v>waiting</v>
+      </c>
+      <c r="C418" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="str">
+        <v>刷新</v>
+      </c>
+      <c r="B419" t="str">
+        <v>refresh</v>
+      </c>
+      <c r="C419" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="str">
+        <v>暂停</v>
+      </c>
+      <c r="B420" t="str">
+        <v>pause</v>
+      </c>
+      <c r="C420" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="str">
+        <v>继续</v>
+      </c>
+      <c r="B421" t="str">
+        <v>continue</v>
+      </c>
+      <c r="C421" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="str">
+        <v>重新开始</v>
+      </c>
+      <c r="B422" t="str">
+        <v>restart</v>
+      </c>
+      <c r="C422" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="str">
+        <v>发送</v>
+      </c>
+      <c r="B423" t="str">
+        <v>send</v>
+      </c>
+      <c r="C423" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="str">
+        <v>关闭</v>
+      </c>
+      <c r="B424" t="str">
+        <v>close</v>
+      </c>
+      <c r="C424" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="str">
+        <v>标题，说明</v>
+      </c>
+      <c r="B425" t="str">
+        <v>caption</v>
+      </c>
+      <c r="C425" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="str">
+        <v>容器</v>
+      </c>
+      <c r="B426" t="str">
+        <v>container</v>
+      </c>
+      <c r="C426" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="str">
+        <v>图标</v>
+      </c>
+      <c r="B427" t="str">
+        <v>icon</v>
+      </c>
+      <c r="C427" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="str">
+        <v>分页</v>
+      </c>
+      <c r="B428" t="str">
+        <v>pagination</v>
+      </c>
+      <c r="C428" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="str">
+        <v>图片</v>
+      </c>
+      <c r="B429" t="str">
+        <v>img / image</v>
+      </c>
+      <c r="C429" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="str">
+        <v>滚动条</v>
+      </c>
+      <c r="B430" t="str">
+        <v>scroll</v>
+      </c>
+      <c r="C430" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="str">
+        <v>进度条</v>
+      </c>
+      <c r="B431" t="str">
+        <v>progress</v>
+      </c>
+      <c r="C431" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="str">
+        <v>线条</v>
+      </c>
+      <c r="B432" t="str">
+        <v>line</v>
+      </c>
+      <c r="C432" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="str">
+        <v>图标</v>
+      </c>
+      <c r="B433" t="str">
+        <v>icon</v>
+      </c>
+      <c r="C433" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="str">
+        <v>标签</v>
+      </c>
+      <c r="B434" t="str">
+        <v>tab</v>
+      </c>
+      <c r="C434" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="str">
+        <v>列表</v>
+      </c>
+      <c r="B435" t="str">
+        <v>list</v>
+      </c>
+      <c r="C435" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="str">
+        <v>静态文本框</v>
+      </c>
+      <c r="B436" t="str">
+        <v>label</v>
+      </c>
+      <c r="C436" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="str">
+        <v>单选框</v>
+      </c>
+      <c r="B437" t="str">
+        <v>radio</v>
+      </c>
+      <c r="C437" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="str">
+        <v>勾选框</v>
+      </c>
+      <c r="B438" t="str">
+        <v>checkbox</v>
+      </c>
+      <c r="C438" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="str">
+        <v>按钮</v>
+      </c>
+      <c r="B439" t="str">
+        <v>btn / button</v>
+      </c>
+      <c r="C439" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="str">
+        <v>背景</v>
+      </c>
+      <c r="B440" t="str">
+        <v>bg / background</v>
+      </c>
+      <c r="C440" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="str">
+        <v>动画</v>
+      </c>
+      <c r="B441" t="str">
+        <v>animation</v>
+      </c>
+      <c r="C441" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="str">
+        <v>标记</v>
+      </c>
+      <c r="B442" t="str">
+        <v>sign</v>
+      </c>
+      <c r="C442" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="str">
+        <v>编辑框</v>
+      </c>
+      <c r="B443" t="str">
+        <v>edit</v>
+      </c>
+      <c r="C443" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="str">
+        <v>播放</v>
+      </c>
+      <c r="B444" t="str">
+        <v>play</v>
+      </c>
+      <c r="C444" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="str">
+        <v>自定义下拉框</v>
+      </c>
+      <c r="B445" t="str">
+        <v>combo</v>
+      </c>
+      <c r="C445" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="str">
+        <v>树</v>
+      </c>
+      <c r="B446" t="str">
+        <v>tree</v>
+      </c>
+      <c r="C446" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="str">
+        <v>蒙版</v>
+      </c>
+      <c r="B447" t="str">
+        <v>mask</v>
+      </c>
+      <c r="C447" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="str">
+        <v>内容</v>
+      </c>
+      <c r="B448" t="str">
+        <v>content</v>
+      </c>
+      <c r="C448" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="str">
+        <v>普通</v>
+      </c>
+      <c r="B449" t="str">
+        <v>normal</v>
+      </c>
+      <c r="C449" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="str">
+        <v>获取焦点</v>
+      </c>
+      <c r="B450" t="str">
+        <v>focused</v>
+      </c>
+      <c r="C450" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="str">
+        <v>已访问</v>
+      </c>
+      <c r="B451" t="str">
+        <v>visited</v>
+      </c>
+      <c r="C451" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="str">
+        <v>悬停</v>
+      </c>
+      <c r="B452" t="str">
+        <v>hover</v>
+      </c>
+      <c r="C452" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="str">
+        <v>默认</v>
+      </c>
+      <c r="B453" t="str">
+        <v>default</v>
+      </c>
+      <c r="C453" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="str">
+        <v>按下</v>
+      </c>
+      <c r="B454" t="str">
+        <v>press</v>
+      </c>
+      <c r="C454" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="str">
+        <v>高亮</v>
+      </c>
+      <c r="B455" t="str">
+        <v>highlight</v>
+      </c>
+      <c r="C455" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="str">
+        <v>禁用</v>
+      </c>
+      <c r="B456" t="str">
+        <v>disabled</v>
+      </c>
+      <c r="C456" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="str">
+        <v>高亮，特殊效果</v>
+      </c>
+      <c r="B457" t="str">
+        <v>selected</v>
+      </c>
+      <c r="C457" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="str">
+        <v>错误</v>
+      </c>
+      <c r="B458" t="str">
+        <v>error</v>
+      </c>
+      <c r="C458" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="str">
+        <v>完成</v>
+      </c>
+      <c r="B459" t="str">
+        <v>complete</v>
+      </c>
+      <c r="C459" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="str">
+        <v>空白</v>
+      </c>
+      <c r="B460" t="str">
+        <v>blank</v>
+      </c>
+      <c r="C460" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="str">
+        <v>当前态，选中态</v>
+      </c>
+      <c r="B461" t="str">
+        <v>current</v>
+      </c>
+      <c r="C461" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="str">
+        <v>不可用</v>
+      </c>
+      <c r="B462" t="str">
+        <v>disabled</v>
+      </c>
+      <c r="C462" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="str">
+        <v>顶部</v>
+      </c>
+      <c r="B463" t="str">
+        <v>top</v>
+      </c>
+      <c r="C463" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="str">
+        <v>头部</v>
+      </c>
+      <c r="B464" t="str">
+        <v>header</v>
+      </c>
+      <c r="C464" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="str">
+        <v>中间</v>
+      </c>
+      <c r="B465" t="str">
+        <v>middle</v>
+      </c>
+      <c r="C465" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="str">
+        <v>尾部</v>
+      </c>
+      <c r="B466" t="str">
+        <v>bottom</v>
+      </c>
+      <c r="C466" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="str">
+        <v>最后</v>
+      </c>
+      <c r="B467" t="str">
+        <v>last</v>
+      </c>
+      <c r="C467" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="str">
+        <v>底部</v>
+      </c>
+      <c r="B468" t="str">
+        <v>footer</v>
+      </c>
+      <c r="C468" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="str">
+        <v>页面底部服务模块</v>
+      </c>
+      <c r="B469" t="str">
+        <v>mod_service</v>
+      </c>
+      <c r="C469" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="str">
+        <v>页面底部帮助模块</v>
+      </c>
+      <c r="B470" t="str">
+        <v>mod_help</v>
+      </c>
+      <c r="C470" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="str">
+        <v>页面底部版权模块</v>
+      </c>
+      <c r="B471" t="str">
+        <v>mod_copyright</v>
+      </c>
+      <c r="C471" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="str">
+        <v>第一</v>
+      </c>
+      <c r="B472" t="str">
+        <v>first</v>
+      </c>
+      <c r="C472" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="str">
+        <v>第二</v>
+      </c>
+      <c r="B473" t="str">
+        <v>second</v>
+      </c>
+      <c r="C473" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="str">
+        <v>确定</v>
+      </c>
+      <c r="B474" t="str">
+        <v>ok</v>
+      </c>
+      <c r="C474" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C164"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C474"/>
   </ignoredErrors>
 </worksheet>
 </file>